--- a/Semester_3/Chemistry_Practicals/DataAnalysis/Experiment_last_plus_makeup/last_plus_makeup.xlsx
+++ b/Semester_3/Chemistry_Practicals/DataAnalysis/Experiment_last_plus_makeup/last_plus_makeup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Optical Activity" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Raw" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -285,11 +286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151177096"/>
-        <c:axId val="151176312"/>
+        <c:axId val="145838856"/>
+        <c:axId val="145838072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151177096"/>
+        <c:axId val="145838856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,12 +422,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151176312"/>
+        <c:crossAx val="145838072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151176312"/>
+        <c:axId val="145838072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151177096"/>
+        <c:crossAx val="145838856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -755,11 +756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202927968"/>
-        <c:axId val="202928360"/>
+        <c:axId val="153631296"/>
+        <c:axId val="153630904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202927968"/>
+        <c:axId val="153631296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,12 +892,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202928360"/>
+        <c:crossAx val="153630904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202928360"/>
+        <c:axId val="153630904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202927968"/>
+        <c:crossAx val="153631296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1189,11 +1190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150323600"/>
-        <c:axId val="151179448"/>
+        <c:axId val="153634040"/>
+        <c:axId val="154670904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150323600"/>
+        <c:axId val="153634040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,12 +1296,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151179448"/>
+        <c:crossAx val="154670904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151179448"/>
+        <c:axId val="154670904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150323600"/>
+        <c:crossAx val="153634040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3263,7 +3264,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:E11" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:E11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="C1:E11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Relative Concetration"/>
@@ -3275,7 +3276,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:C5" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:C5" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="B1:C5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Absorption by Dichromate Ions"/>
